--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr10.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr10.xlsx
@@ -34,10 +34,22 @@
     <t>readmitted</t>
   </si>
   <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>admission_source_id</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
-    <t>insulin</t>
+    <t>max_glu_serum</t>
+  </si>
+  <si>
+    <t>a1cresult</t>
   </si>
   <si>
     <t>diabetesmed</t>
@@ -46,28 +58,16 @@
     <t>race</t>
   </si>
   <si>
-    <t>a1cresult</t>
-  </si>
-  <si>
-    <t>max_glu_serum</t>
-  </si>
-  <si>
-    <t>gender</t>
+    <t>diag_1</t>
   </si>
   <si>
     <t>change</t>
   </si>
   <si>
-    <t>admission_type_id</t>
-  </si>
-  <si>
-    <t>diag_1</t>
-  </si>
-  <si>
     <t>discharge_disposition_id</t>
   </si>
   <si>
-    <t>admission_source_id</t>
+    <t>admission_type_id</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -82,10 +82,10 @@
     <t>time_in_hospital</t>
   </si>
   <si>
-    <t>number_diagnoses</t>
+    <t>num_medications</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>number_diagnoses</t>
   </si>
   <si>
     <t>num_lab_procedures</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.327302168759467</v>
+        <v>1.305318629005046</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.322635498199662</v>
+        <v>1.297237615862483</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1.284968469918193</v>
+        <v>1.257744371466159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1.275986169015005</v>
+        <v>1.241409024653609</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1.247219128924647</v>
+        <v>1.195228609334394</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.234888231081932</v>
+        <v>1.185325684204344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.231414244064439</v>
+        <v>1.178910729646047</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.231407834934894</v>
+        <v>1.170038204112555</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.229200285220876</v>
+        <v>1.164824007969451</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -648,10 +648,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1.228086609857576</v>
+        <v>1.164667046888427</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.224744871391589</v>
+        <v>1.163613986228807</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.224744871391589</v>
+        <v>1.161676980219609</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.224744871391589</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1.223110788113652</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1.220394076570212</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.211371762994563</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1.207889305628801</v>
+        <v>1.145881092548817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.19105298696002</v>
+        <v>1.13286166967929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.132897844503412</v>
+        <v>1.097274029906733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>1.033593809296271</v>
+        <v>0.9825372751600916</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>1.030238890425015</v>
+        <v>0.9787096827705548</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>1.028574549827243</v>
+        <v>0.9767654022322548</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>1.026309775375019</v>
+        <v>0.9744180604332567</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>1.018903049111925</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>1.018903049111925</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>1.018903049111925</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>1.018903049111925</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>1.018903049111925</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -974,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>1.018903049111925</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -991,7 +991,7 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>1.018903049111925</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>1.018903049111925</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9937740345636317</v>
+        <v>0.9351842687032762</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.7978806069036927</v>
+        <v>0.8428085311979199</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.7427252513975</v>
+        <v>0.6828113045484659</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.6373952366251463</v>
+        <v>0.6723332348477794</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1087,13 +1087,13 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.6354889093022426</v>
+        <v>0.665278802602165</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6049724470613476</v>
+        <v>0.5873094066442629</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.5826767501127458</v>
+        <v>0.5752105633919806</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.5777083159026078</v>
+        <v>0.5737351382889876</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -1161,7 +1161,7 @@
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.5699228281751731</v>
+        <v>0.5685859816804076</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
@@ -1178,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5434251936903057</v>
+        <v>0.5646513692812307</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.541894892722329</v>
+        <v>0.5576652239787578</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,7 +1203,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -1212,7 +1212,7 @@
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.536632362445353</v>
+        <v>0.5374489290633588</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.5308006869040677</v>
+        <v>0.527492118880673</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5229763603684908</v>
+        <v>0.5154965610422458</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>0.522061265423568</v>
+        <v>0.514856323705427</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,7 +1271,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -1280,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.5190398051765552</v>
+        <v>0.4934351637951689</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.5147399974329419</v>
+        <v>0.4838529863239266</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>0.5071793108639583</v>
+        <v>0.4805242299551451</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,7 +1322,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -1331,7 +1331,7 @@
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.487455241650567</v>
+        <v>0.4773929014361023</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1342,13 +1342,13 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4845267573153813</v>
+        <v>0.4682512779045662</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,7 +1356,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -1365,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4625643137992024</v>
+        <v>0.4677782783190049</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4586038162918624</v>
+        <v>0.4476239101768048</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,7 +1390,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
@@ -1399,7 +1399,7 @@
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4513186508334926</v>
+        <v>0.4324508092293096</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -1416,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.450572094672364</v>
+        <v>0.4259047757704666</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,7 +1424,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -1433,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4370710164793905</v>
+        <v>0.4223026054498201</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4338861863899119</v>
+        <v>0.4207427742804716</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4264577865649938</v>
+        <v>0.4149966532662911</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4224128030998012</v>
+        <v>0.4059989714705751</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1495,13 +1495,13 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
       <c r="E61">
-        <v>0.4043189565754152</v>
+        <v>0.3875156128059232</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>0.4002336840172714</v>
+        <v>0.3872983346207417</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,7 +1526,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>19</v>
@@ -1535,7 +1535,7 @@
         <v>27</v>
       </c>
       <c r="E63">
-        <v>0.3982755550137605</v>
+        <v>0.3771008567741199</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3842968795206712</v>
+        <v>0.3751358871534182</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E65">
-        <v>0.3833780182349493</v>
+        <v>0.3707986196911415</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
       </c>
       <c r="E66">
-        <v>0.3811541031698283</v>
+        <v>0.3696516410979713</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E67">
-        <v>0.3789873827904606</v>
+        <v>0.3650957628807705</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E68">
-        <v>0.3751054831147422</v>
+        <v>0.3566084719928753</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3714974438354969</v>
+        <v>0.3539279918399004</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3670489030090884</v>
+        <v>0.3512016287364501</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,7 +1662,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -1671,7 +1671,7 @@
         <v>26</v>
       </c>
       <c r="E71">
-        <v>0.3653502524140761</v>
+        <v>0.3460258771038652</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3625823463460733</v>
+        <v>0.3435500184899861</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E73">
-        <v>0.3576487441365496</v>
+        <v>0.3372195254892236</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
       </c>
       <c r="E74">
-        <v>0.3443331111294815</v>
+        <v>0.3333116786206538</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E75">
-        <v>0.3335463807446121</v>
+        <v>0.3298571014708913</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1753,10 +1753,10 @@
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76">
-        <v>0.3284446629530313</v>
+        <v>0.3176117015830118</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1767,13 +1767,13 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>0.3180691974642649</v>
+        <v>0.3150032578936544</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E78">
-        <v>0.3118463207504251</v>
+        <v>0.3103934374652683</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
         <v>26</v>
       </c>
       <c r="E79">
-        <v>0.3097974644173157</v>
+        <v>0.3093821414245321</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E80">
-        <v>0.30950027618389</v>
+        <v>0.3071474379281062</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>0.3053375457496509</v>
+        <v>0.3058440872989499</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
         <v>26</v>
       </c>
       <c r="E82">
-        <v>0.3034379409475854</v>
+        <v>0.3046005958497202</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E83">
-        <v>0.3026818731132303</v>
+        <v>0.3034843975008009</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>0.3006565111798904</v>
+        <v>0.2845073237101489</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E85">
-        <v>0.2994215932722925</v>
+        <v>0.2843633831785</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E86">
-        <v>0.2938363640174489</v>
+        <v>0.272831044159481</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
         <v>26</v>
       </c>
       <c r="E87">
-        <v>0.2875784207811572</v>
+        <v>0.2606850247937713</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,7 +1951,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
@@ -1960,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2812374716566422</v>
+        <v>0.2601004224373686</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2753962657675777</v>
+        <v>0.2597177099447835</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1988,13 +1988,13 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
       </c>
       <c r="E90">
-        <v>0.2745974078293718</v>
+        <v>0.2575312183856326</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E91">
-        <v>0.2733006499160754</v>
+        <v>0.2533914015508429</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E92">
-        <v>0.2661349413589618</v>
+        <v>0.2443325857605549</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2605092697757367</v>
+        <v>0.2420539290479315</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>0.2593085707672815</v>
+        <v>0.2397860442599769</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E95">
-        <v>0.2556483793448032</v>
+        <v>0.2382493430120559</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E96">
-        <v>0.2501100645441221</v>
+        <v>0.2328582328754599</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,7 +2104,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
@@ -2113,7 +2113,7 @@
         <v>27</v>
       </c>
       <c r="E97">
-        <v>0.2449285644149921</v>
+        <v>0.2284377501816796</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E98">
-        <v>0.243492376778837</v>
+        <v>0.2277767966956182</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E99">
-        <v>0.2387413488657205</v>
+        <v>0.2276569912850386</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>0.2382493430120559</v>
+        <v>0.2270820060172829</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E101">
-        <v>0.2346424465651711</v>
+        <v>0.2269013663591707</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E102">
-        <v>0.2344083901543454</v>
+        <v>0.2248698906409868</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>0.2338988501184238</v>
+        <v>0.2232078865679297</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E104">
-        <v>0.2310626833635143</v>
+        <v>0.221890291451331</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2243,13 +2243,13 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D105" t="s">
         <v>27</v>
       </c>
       <c r="E105">
-        <v>0.2295390425243835</v>
+        <v>0.2211083193570266</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2266,7 +2266,7 @@
         <v>27</v>
       </c>
       <c r="E106">
-        <v>0.2294943156781522</v>
+        <v>0.2165598095921318</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E107">
-        <v>0.2294601470438847</v>
+        <v>0.2164037632899959</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,7 +2291,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
@@ -2300,7 +2300,7 @@
         <v>27</v>
       </c>
       <c r="E108">
-        <v>0.2272336063967558</v>
+        <v>0.2110074263480724</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E109">
-        <v>0.2248310116868496</v>
+        <v>0.2061831490343104</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,7 +2325,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>18</v>
@@ -2334,7 +2334,7 @@
         <v>26</v>
       </c>
       <c r="E110">
-        <v>0.2246915216107677</v>
+        <v>0.2048758014658428</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
         <v>28</v>
       </c>
       <c r="E111">
-        <v>0.2234381462005189</v>
+        <v>0.2016755034953508</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2362,13 +2362,13 @@
         <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
       </c>
       <c r="E112">
-        <v>0.2225355695616751</v>
+        <v>0.2014234725416919</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2379,13 +2379,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.2203292928903249</v>
+        <v>0.1995123862700431</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2186106524341885</v>
+        <v>0.1990163180162371</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2413,13 +2413,13 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>0.2169452204787445</v>
+        <v>0.1985307443351764</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,7 +2427,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
         <v>20</v>
@@ -2436,7 +2436,7 @@
         <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2150059650250044</v>
+        <v>0.1969740239997843</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
         <v>26</v>
       </c>
       <c r="E117">
-        <v>0.2136654812557713</v>
+        <v>0.1963271954782899</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,7 +2461,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
         <v>20</v>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="E118">
-        <v>0.2130326889763606</v>
+        <v>0.1953354963406924</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2122381799890044</v>
+        <v>0.1949642096360024</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E120">
-        <v>0.2109655363665387</v>
+        <v>0.1949642096360024</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.2090823638949624</v>
+        <v>0.1949642096360024</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2068350759980075</v>
+        <v>0.1949642096360024</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2054457523534381</v>
+        <v>0.1949642096360024</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2023212775091366</v>
+        <v>0.1949642096360024</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2002706260783859</v>
+        <v>0.1949642096360024</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>0.1981115044777438</v>
+        <v>0.1949642096360024</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D127" t="s">
         <v>28</v>
       </c>
       <c r="E127">
-        <v>0.1964093692336134</v>
+        <v>0.1944241438268527</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2634,13 +2634,13 @@
         <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128" t="s">
         <v>26</v>
       </c>
       <c r="E128">
-        <v>0.1961109354473438</v>
+        <v>0.1941147072008673</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.1932253679870503</v>
+        <v>0.1936023480931513</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E130">
-        <v>0.1932253679870503</v>
+        <v>0.1920138131220002</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E131">
-        <v>0.1932253679870503</v>
+        <v>0.1909401505016938</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
       </c>
       <c r="E132">
-        <v>0.1932253679870503</v>
+        <v>0.1894374926450636</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.1932253679870503</v>
+        <v>0.1894374926450636</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.1932253679870503</v>
+        <v>0.1894374926450636</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
         <v>29</v>
       </c>
       <c r="E135">
-        <v>0.1932253679870503</v>
+        <v>0.1894374926450636</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D136" t="s">
         <v>29</v>
       </c>
       <c r="E136">
-        <v>0.1932253679870503</v>
+        <v>0.1894374926450636</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2787,13 +2787,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D137" t="s">
         <v>29</v>
       </c>
       <c r="E137">
-        <v>0.1913925169142766</v>
+        <v>0.1894374926450636</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2804,13 +2804,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D138" t="s">
         <v>29</v>
       </c>
       <c r="E138">
-        <v>0.1913925169142766</v>
+        <v>0.1894374926450636</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2821,13 +2821,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
       </c>
       <c r="E139">
-        <v>0.1913925169142766</v>
+        <v>0.1894374926450636</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E140">
-        <v>0.1913925169142766</v>
+        <v>0.1894348428171797</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>0.1913925169142766</v>
+        <v>0.1887878447307729</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
         <v>18</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E142">
-        <v>0.1913925169142766</v>
+        <v>0.1879951112814838</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E143">
-        <v>0.1913925169142766</v>
+        <v>0.1863569848580014</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>0.1913925169142766</v>
+        <v>0.1859541370378602</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
         <v>28</v>
       </c>
       <c r="E145">
-        <v>0.1911181633546227</v>
+        <v>0.1858530097765561</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E146">
-        <v>0.1897250736998176</v>
+        <v>0.1837680538122375</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E147">
-        <v>0.1891337999622509</v>
+        <v>0.1831836790932745</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
         <v>27</v>
       </c>
       <c r="E148">
-        <v>0.1886056633394795</v>
+        <v>0.1830651273936235</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
         <v>28</v>
       </c>
       <c r="E149">
-        <v>0.1873673864288906</v>
+        <v>0.1826317695309735</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3008,13 +3008,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.1860988880198008</v>
+        <v>0.1817172027279443</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E151">
-        <v>0.1854537498187505</v>
+        <v>0.1807987058665264</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E152">
-        <v>0.1839071262005792</v>
+        <v>0.1792352495022807</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E153">
-        <v>0.1830651273936235</v>
+        <v>0.1778733924112993</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E154">
-        <v>0.1830376218627616</v>
+        <v>0.1766091256290566</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D155" t="s">
         <v>28</v>
       </c>
       <c r="E155">
-        <v>0.1815410561730393</v>
+        <v>0.1765170740568213</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
         <v>28</v>
       </c>
       <c r="E156">
-        <v>0.1808248675052466</v>
+        <v>0.1750556459699174</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E157">
-        <v>0.1796764745189315</v>
+        <v>0.1744562559711196</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E158">
-        <v>0.1780473452476863</v>
+        <v>0.1738578874156805</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.1765316359859382</v>
+        <v>0.171606653967361</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3178,13 +3178,13 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E160">
-        <v>0.1759545674372181</v>
+        <v>0.1690416012025655</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
       </c>
       <c r="E161">
-        <v>0.1749318980407034</v>
+        <v>0.1677997115376315</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E162">
-        <v>0.1739845144523741</v>
+        <v>0.1672513585532852</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D163" t="s">
         <v>28</v>
       </c>
       <c r="E163">
-        <v>0.1722949728533121</v>
+        <v>0.1671571482957914</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E164">
-        <v>0.1713894367287435</v>
+        <v>0.1664908324404394</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E165">
-        <v>0.17083871895898</v>
+        <v>0.1664243406017624</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E166">
-        <v>0.170361510311807</v>
+        <v>0.1640256192237201</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E167">
-        <v>0.1700001498332604</v>
+        <v>0.1622372787421368</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E168">
-        <v>0.1680742358807951</v>
+        <v>0.161523467939537</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
         <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E169">
-        <v>0.1673987645376007</v>
+        <v>0.1606546996010434</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,7 +3345,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C170" t="s">
         <v>25</v>
@@ -3354,7 +3354,7 @@
         <v>28</v>
       </c>
       <c r="E170">
-        <v>0.1655748661827573</v>
+        <v>0.1604121535607682</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3365,13 +3365,13 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E171">
-        <v>0.1654194799685285</v>
+        <v>0.15640764223023</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D172" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E172">
-        <v>0.1654194799685285</v>
+        <v>0.1560829803703468</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1654194799685285</v>
+        <v>0.1560406731140505</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D174" t="s">
         <v>29</v>
       </c>
       <c r="E174">
-        <v>0.1654194799685285</v>
+        <v>0.1558104558607091</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D175" t="s">
         <v>29</v>
       </c>
       <c r="E175">
-        <v>0.1654194799685285</v>
+        <v>0.1558104558607091</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s">
         <v>29</v>
       </c>
       <c r="E176">
-        <v>0.1654194799685285</v>
+        <v>0.1558104558607091</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D177" t="s">
         <v>29</v>
       </c>
       <c r="E177">
-        <v>0.1654194799685285</v>
+        <v>0.1558104558607091</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
       </c>
       <c r="E178">
-        <v>0.1654194799685285</v>
+        <v>0.1558104558607091</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E179">
-        <v>0.1648412379027676</v>
+        <v>0.1558104558607091</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E180">
-        <v>0.1644158770741344</v>
+        <v>0.1558104558607091</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E181">
-        <v>0.1637209090562501</v>
+        <v>0.1558104558607091</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E182">
-        <v>0.1624583041811387</v>
+        <v>0.1548124152746864</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E183">
-        <v>0.1616290321926651</v>
+        <v>0.1529476212323092</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>0.159368537576585</v>
+        <v>0.1527037250527285</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E185">
-        <v>0.1589292161191014</v>
+        <v>0.1509781210354862</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E186">
-        <v>0.1588629848470833</v>
+        <v>0.1509781210354862</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3637,13 +3637,13 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1584181817069317</v>
+        <v>0.1509781210354862</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E188">
-        <v>0.1560690764597021</v>
+        <v>0.1509781210354862</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3671,13 +3671,13 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E189">
-        <v>0.1548151971004653</v>
+        <v>0.1509781210354862</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3688,13 +3688,13 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1541112552112438</v>
+        <v>0.1509781210354862</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1534416218892013</v>
+        <v>0.1509781210354862</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E192">
-        <v>0.1532868044012447</v>
+        <v>0.1509781210354862</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E193">
-        <v>0.1487290116436331</v>
+        <v>0.1507264784566241</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D194" t="s">
         <v>28</v>
       </c>
       <c r="E194">
-        <v>0.1473315485232321</v>
+        <v>0.1494100399757819</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E195">
-        <v>0.1468776147269051</v>
+        <v>0.1476940288365173</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E196">
-        <v>0.1466118165026846</v>
+        <v>0.1476176983083926</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E197">
-        <v>0.1465468223980687</v>
+        <v>0.1473647477306765</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E198">
-        <v>0.1463558687873248</v>
+        <v>0.1473158834887008</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E199">
-        <v>0.1461753478083965</v>
+        <v>0.1466979161978733</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E200">
-        <v>0.1461753478083965</v>
+        <v>0.1462965656208344</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E201">
-        <v>0.1461753478083965</v>
+        <v>0.1459845040058572</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E202">
-        <v>0.1461753478083965</v>
+        <v>0.1457538161443421</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E203">
-        <v>0.1461753478083965</v>
+        <v>0.1452195682147404</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1461753478083965</v>
+        <v>0.1450143700309162</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D205" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E205">
-        <v>0.1461753478083965</v>
+        <v>0.1447106734747778</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E206">
-        <v>0.1461753478083965</v>
+        <v>0.142499842930519</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D207" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E207">
-        <v>0.1448582604504486</v>
+        <v>0.1422134195885783</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D208" t="s">
         <v>28</v>
       </c>
       <c r="E208">
-        <v>0.1446371672343378</v>
+        <v>0.1416973048972519</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E209">
-        <v>0.1440018205259004</v>
+        <v>0.1408415589742746</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1440018205259004</v>
+        <v>0.1399818710550451</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D211" t="s">
         <v>29</v>
       </c>
       <c r="E211">
-        <v>0.1440018205259004</v>
+        <v>0.1397107593526973</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D212" t="s">
         <v>29</v>
       </c>
       <c r="E212">
-        <v>0.1440018205259004</v>
+        <v>0.1397107593526973</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,7 +4076,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C213" t="s">
         <v>22</v>
@@ -4085,7 +4085,7 @@
         <v>29</v>
       </c>
       <c r="E213">
-        <v>0.1440018205259004</v>
+        <v>0.1397107593526973</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D214" t="s">
         <v>29</v>
       </c>
       <c r="E214">
-        <v>0.1440018205259004</v>
+        <v>0.1397107593526973</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D215" t="s">
         <v>29</v>
       </c>
       <c r="E215">
-        <v>0.1440018205259004</v>
+        <v>0.1397107593526973</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D216" t="s">
         <v>29</v>
       </c>
       <c r="E216">
-        <v>0.1440018205259004</v>
+        <v>0.1397107593526973</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C217" t="s">
         <v>23</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E217">
-        <v>0.1439333525243336</v>
+        <v>0.1397107593526973</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D218" t="s">
         <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1436685048896879</v>
+        <v>0.1397107593526973</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1436685048896879</v>
+        <v>0.1395005455797061</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E220">
-        <v>0.1436685048896879</v>
+        <v>0.1394166506291069</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D221" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E221">
-        <v>0.1436685048896879</v>
+        <v>0.138180453341626</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E222">
-        <v>0.1436685048896879</v>
+        <v>0.1380778004644148</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D223" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E223">
-        <v>0.1436685048896879</v>
+        <v>0.1372848204876569</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D224" t="s">
         <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1436685048896879</v>
+        <v>0.136653019325361</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D225" t="s">
         <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1436685048896879</v>
+        <v>0.136653019325361</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E226">
-        <v>0.1431048688830775</v>
+        <v>0.136653019325361</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1425099013124101</v>
+        <v>0.136653019325361</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1415941822077827</v>
+        <v>0.136653019325361</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4351,13 +4351,13 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1414976735369708</v>
+        <v>0.136653019325361</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1400792492916087</v>
+        <v>0.136653019325361</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E231">
-        <v>0.1390358460116901</v>
+        <v>0.136653019325361</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D232" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E232">
-        <v>0.1376912091871678</v>
+        <v>0.134645062699906</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E233">
-        <v>0.1368869749119196</v>
+        <v>0.134645062699906</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1365360342365396</v>
+        <v>0.134645062699906</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D235" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1337898253174856</v>
+        <v>0.134645062699906</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C236" t="s">
         <v>21</v>
       </c>
       <c r="D236" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1325623635879911</v>
+        <v>0.134645062699906</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C237" t="s">
         <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1318018722884404</v>
+        <v>0.134645062699906</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C238" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1310452075246037</v>
+        <v>0.134645062699906</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D239" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E239">
-        <v>0.1307271852620586</v>
+        <v>0.134645062699906</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,7 +4535,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C240" t="s">
         <v>25</v>
@@ -4544,7 +4544,7 @@
         <v>26</v>
       </c>
       <c r="E240">
-        <v>0.1306902698767502</v>
+        <v>0.1307290097352617</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E241">
-        <v>0.1291075421603977</v>
+        <v>0.1306842850777041</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D242" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E242">
-        <v>0.1291075421603977</v>
+        <v>0.1303430160605049</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E243">
-        <v>0.1291075421603977</v>
+        <v>0.1293107509703319</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E244">
-        <v>0.1291075421603977</v>
+        <v>0.1280999400220793</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E245">
-        <v>0.1291075421603977</v>
+        <v>0.1276461169371381</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E246">
-        <v>0.1291075421603977</v>
+        <v>0.1238291631701479</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>22</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E247">
-        <v>0.1291075421603977</v>
+        <v>0.1233772771784347</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E248">
-        <v>0.1291075421603977</v>
+        <v>0.1197791187495878</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D249" t="s">
         <v>28</v>
       </c>
       <c r="E249">
-        <v>0.1286449760230321</v>
+        <v>0.1193749609568802</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D250" t="s">
         <v>26</v>
       </c>
       <c r="E250">
-        <v>0.1281017771888665</v>
+        <v>0.1191340612740921</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E251">
-        <v>0.1280710119418024</v>
+        <v>0.1186053318624355</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C252" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D252" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E252">
-        <v>0.1271988301596208</v>
+        <v>0.1179265228970043</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D253" t="s">
         <v>26</v>
       </c>
       <c r="E253">
-        <v>0.127068166015288</v>
+        <v>0.1176867077034271</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C254" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D254" t="s">
         <v>26</v>
       </c>
       <c r="E254">
-        <v>0.1258296865351828</v>
+        <v>0.1172389294912631</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C255" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D255" t="s">
         <v>28</v>
       </c>
       <c r="E255">
-        <v>0.1257755715750898</v>
+        <v>0.116771817102312</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4816,7 +4816,7 @@
         <v>28</v>
       </c>
       <c r="E256">
-        <v>0.1257320127449931</v>
+        <v>0.1166976481152998</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,7 +4824,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C257" t="s">
         <v>19</v>
@@ -4833,7 +4833,7 @@
         <v>28</v>
       </c>
       <c r="E257">
-        <v>0.1250366872924459</v>
+        <v>0.1158486613096366</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
         <v>26</v>
       </c>
       <c r="E258">
-        <v>0.1243838757238454</v>
+        <v>0.1147833400928196</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,7 +4858,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
         <v>22</v>
@@ -4867,7 +4867,7 @@
         <v>26</v>
       </c>
       <c r="E259">
-        <v>0.1233019618137386</v>
+        <v>0.1139969018372932</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4878,13 +4878,13 @@
         <v>17</v>
       </c>
       <c r="C260" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D260" t="s">
         <v>26</v>
       </c>
       <c r="E260">
-        <v>0.1226603730124617</v>
+        <v>0.113638776016511</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D261" t="s">
         <v>28</v>
       </c>
       <c r="E261">
-        <v>0.1208153580284447</v>
+        <v>0.1134988792005275</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D262" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E262">
-        <v>0.1205705201118638</v>
+        <v>0.112402508518381</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C263" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D263" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E263">
-        <v>0.1185782672515243</v>
+        <v>0.1120086417202794</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C264" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D264" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E264">
-        <v>0.1176454681014955</v>
+        <v>0.1118605266292571</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D265" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E265">
-        <v>0.117537648746682</v>
+        <v>0.1115164137328199</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,7 +4977,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s">
         <v>22</v>
@@ -4986,7 +4986,7 @@
         <v>26</v>
       </c>
       <c r="E266">
-        <v>0.1159501586976632</v>
+        <v>0.1100765132101861</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E267">
-        <v>0.1150860904853519</v>
+        <v>0.1093983225951541</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,7 +5011,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
         <v>22</v>
@@ -5020,7 +5020,7 @@
         <v>28</v>
       </c>
       <c r="E268">
-        <v>0.1141687412081348</v>
+        <v>0.1092742644139342</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C269" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D269" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1141592432853349</v>
+        <v>0.1086419655569473</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C270" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D270" t="s">
         <v>26</v>
       </c>
       <c r="E270">
-        <v>0.113875769895411</v>
+        <v>0.1086006018366442</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C271" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D271" t="s">
         <v>26</v>
       </c>
       <c r="E271">
-        <v>0.113613312263891</v>
+        <v>0.1085287552658747</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D272" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E272">
-        <v>0.1128925747506785</v>
+        <v>0.108389180294497</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C273" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D273" t="s">
         <v>26</v>
       </c>
       <c r="E273">
-        <v>0.1126031602893439</v>
+        <v>0.10722263079835</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C274" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D274" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E274">
-        <v>0.1125340301736753</v>
+        <v>0.1071439248291882</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D275" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E275">
-        <v>0.1116853949817853</v>
+        <v>0.1067446502226282</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C276" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D276" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E276">
-        <v>0.1115027246290713</v>
+        <v>0.1066084890925938</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C277" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D277" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E277">
-        <v>0.1099935321359452</v>
+        <v>0.105199828664017</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
         <v>23</v>
       </c>
       <c r="D278" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1099935321359452</v>
+        <v>0.1041420625195103</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D279" t="s">
         <v>29</v>
       </c>
       <c r="E279">
-        <v>0.1099935321359452</v>
+        <v>0.1040545655901931</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D280" t="s">
         <v>29</v>
       </c>
       <c r="E280">
-        <v>0.1099935321359452</v>
+        <v>0.1040545655901931</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D281" t="s">
         <v>29</v>
       </c>
       <c r="E281">
-        <v>0.1099935321359452</v>
+        <v>0.1040545655901931</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D282" t="s">
         <v>29</v>
       </c>
       <c r="E282">
-        <v>0.1099935321359452</v>
+        <v>0.1040545655901931</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D283" t="s">
         <v>29</v>
       </c>
       <c r="E283">
-        <v>0.1099935321359452</v>
+        <v>0.1040545655901931</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C284" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D284" t="s">
         <v>29</v>
       </c>
       <c r="E284">
-        <v>0.1099935321359452</v>
+        <v>0.1040545655901931</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C285" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D285" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E285">
-        <v>0.1096561367443044</v>
+        <v>0.1040545655901931</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D286" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1088675053426326</v>
+        <v>0.1040545655901931</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5337,13 +5337,13 @@
         <v>8</v>
       </c>
       <c r="C287" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D287" t="s">
         <v>26</v>
       </c>
       <c r="E287">
-        <v>0.1080540440561507</v>
+        <v>0.103763879919098</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D288" t="s">
         <v>28</v>
       </c>
       <c r="E288">
-        <v>0.1073487003478275</v>
+        <v>0.1035770200731407</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5371,13 +5371,13 @@
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D289" t="s">
         <v>28</v>
       </c>
       <c r="E289">
-        <v>0.1069642186298362</v>
+        <v>0.1031509333032527</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C290" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D290" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E290">
-        <v>0.1065171189916944</v>
+        <v>0.1029128583179231</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,7 +5402,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C291" t="s">
         <v>22</v>
@@ -5411,7 +5411,7 @@
         <v>28</v>
       </c>
       <c r="E291">
-        <v>0.1059195449968195</v>
+        <v>0.1022149835095877</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,7 +5419,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C292" t="s">
         <v>21</v>
@@ -5428,7 +5428,7 @@
         <v>26</v>
       </c>
       <c r="E292">
-        <v>0.1053285758023527</v>
+        <v>0.1021750688368779</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C293" t="s">
         <v>24</v>
@@ -5445,7 +5445,7 @@
         <v>26</v>
       </c>
       <c r="E293">
-        <v>0.1053051446570487</v>
+        <v>0.1010755464597581</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D294" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E294">
-        <v>0.1039852361975931</v>
+        <v>0.1009116212362554</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
         <v>29</v>
       </c>
       <c r="E295">
-        <v>0.102855696392594</v>
+        <v>0.1009116212362554</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C296" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D296" t="s">
         <v>29</v>
       </c>
       <c r="E296">
-        <v>0.102855696392594</v>
+        <v>0.1009116212362554</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C297" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D297" t="s">
         <v>29</v>
       </c>
       <c r="E297">
-        <v>0.102855696392594</v>
+        <v>0.1009116212362554</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C298" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D298" t="s">
         <v>29</v>
       </c>
       <c r="E298">
-        <v>0.102855696392594</v>
+        <v>0.1009116212362554</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C299" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D299" t="s">
         <v>29</v>
       </c>
       <c r="E299">
-        <v>0.102855696392594</v>
+        <v>0.1009116212362554</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D300" t="s">
         <v>29</v>
       </c>
       <c r="E300">
-        <v>0.102855696392594</v>
+        <v>0.1009116212362554</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D301" t="s">
         <v>29</v>
       </c>
       <c r="E301">
-        <v>0.102855696392594</v>
+        <v>0.1009116212362554</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C302" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E302">
-        <v>0.102855696392594</v>
+        <v>0.1007084268621033</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C303" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D303" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E303">
-        <v>0.1025822537876264</v>
+        <v>0.1006033694978854</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E304">
-        <v>0.1024420337511128</v>
+        <v>0.1001867572843452</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C305" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D305" t="s">
         <v>26</v>
       </c>
       <c r="E305">
-        <v>0.1018011592606747</v>
+        <v>0.09918710019934072</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C306" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D306" t="s">
         <v>28</v>
       </c>
       <c r="E306">
-        <v>0.1017776877732886</v>
+        <v>0.09912831900276417</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C307" t="s">
         <v>25</v>
       </c>
       <c r="D307" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E307">
-        <v>0.1016959035470313</v>
+        <v>0.09879025263466983</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
         <v>23</v>
       </c>
       <c r="D308" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E308">
-        <v>0.1012398257381806</v>
+        <v>0.0985657045933533</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C309" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E309">
-        <v>0.1012398257381806</v>
+        <v>0.09830799403562353</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C310" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D310" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E310">
-        <v>0.1012398257381806</v>
+        <v>0.09744959923960221</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D311" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E311">
-        <v>0.1012398257381806</v>
+        <v>0.09539766309355274</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C312" t="s">
         <v>22</v>
       </c>
       <c r="D312" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E312">
-        <v>0.1012398257381806</v>
+        <v>0.09502685651020208</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C313" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D313" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E313">
-        <v>0.1012398257381806</v>
+        <v>0.09449038324581469</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D314" t="s">
         <v>29</v>
       </c>
       <c r="E314">
-        <v>0.1012398257381806</v>
+        <v>0.09429591090005211</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C315" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D315" t="s">
         <v>29</v>
       </c>
       <c r="E315">
-        <v>0.1012398257381806</v>
+        <v>0.09429591090005211</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C316" t="s">
         <v>21</v>
       </c>
       <c r="D316" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E316">
-        <v>0.1005326924033139</v>
+        <v>0.09429591090005211</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D317" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E317">
-        <v>0.09594163455003928</v>
+        <v>0.09429591090005211</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C318" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D318" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E318">
-        <v>0.09400287429455798</v>
+        <v>0.09429591090005211</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C319" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D319" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E319">
-        <v>0.09304093650207337</v>
+        <v>0.09429591090005211</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D320" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E320">
-        <v>0.09301529380252992</v>
+        <v>0.09429591090005211</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D321" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E321">
-        <v>0.09212294413844668</v>
+        <v>0.09429591090005211</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C322" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E322">
-        <v>0.09210745478161675</v>
+        <v>0.09423636638009904</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C323" t="s">
         <v>22</v>
       </c>
       <c r="D323" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E323">
-        <v>0.092003886914981</v>
+        <v>0.0909803817024617</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C324" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D324" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E324">
-        <v>0.09161451648675044</v>
+        <v>0.09032297090702507</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C325" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D325" t="s">
         <v>28</v>
       </c>
       <c r="E325">
-        <v>0.09033554161926101</v>
+        <v>0.08899058964075938</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D326" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E326">
-        <v>0.09005253687161539</v>
+        <v>0.08882246022866713</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C327" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D327" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E327">
-        <v>0.08959842995090729</v>
+        <v>0.08882246022866713</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6034,13 +6034,13 @@
         <v>17</v>
       </c>
       <c r="C328" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D328" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E328">
-        <v>0.08886553271058351</v>
+        <v>0.08882246022866713</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C329" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D329" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E329">
-        <v>0.08852959721383138</v>
+        <v>0.08882246022866713</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C330" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D330" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E330">
-        <v>0.08812644061092821</v>
+        <v>0.08882246022866713</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C331" t="s">
         <v>21</v>
       </c>
       <c r="D331" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E331">
-        <v>0.08751001817012991</v>
+        <v>0.08882246022866713</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C332" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D332" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E332">
-        <v>0.08723091691760253</v>
+        <v>0.08882246022866713</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C333" t="s">
         <v>25</v>
       </c>
       <c r="D333" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E333">
-        <v>0.08621625067836562</v>
+        <v>0.08882246022866713</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D334" t="s">
         <v>28</v>
       </c>
       <c r="E334">
-        <v>0.08550081527505779</v>
+        <v>0.08839619872955785</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D335" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E335">
-        <v>0.08383162473583211</v>
+        <v>0.0849159112925936</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C336" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D336" t="s">
         <v>28</v>
       </c>
       <c r="E336">
-        <v>0.08170536049610533</v>
+        <v>0.08438328705245232</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C337" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D337" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E337">
-        <v>0.07878581401175715</v>
+        <v>0.08437086008883858</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C338" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D338" t="s">
         <v>26</v>
       </c>
       <c r="E338">
-        <v>0.07863270971249481</v>
+        <v>0.08337358526645784</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C339" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D339" t="s">
         <v>26</v>
       </c>
       <c r="E339">
-        <v>0.0777843237001998</v>
+        <v>0.08059550865917273</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C340" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D340" t="s">
         <v>28</v>
       </c>
       <c r="E340">
-        <v>0.07695502246969198</v>
+        <v>0.08031292711383603</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C341" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D341" t="s">
         <v>26</v>
       </c>
       <c r="E341">
-        <v>0.07571021986023584</v>
+        <v>0.08018961791777596</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C342" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D342" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E342">
-        <v>0.07474603656187093</v>
+        <v>0.07956924816401274</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C343" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E343">
-        <v>0.0722146237378376</v>
+        <v>0.07895494184593634</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C344" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D344" t="s">
         <v>28</v>
       </c>
       <c r="E344">
-        <v>0.07213578589576063</v>
+        <v>0.07774027118817034</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D345" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E345">
-        <v>0.06977315408532817</v>
+        <v>0.07667943257212513</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C346" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D346" t="s">
         <v>26</v>
       </c>
       <c r="E346">
-        <v>0.06916154953563933</v>
+        <v>0.07620635173386951</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E347">
-        <v>0.06717721483533759</v>
+        <v>0.07553930021027125</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C348" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D348" t="s">
         <v>26</v>
       </c>
       <c r="E348">
-        <v>0.06648692424488008</v>
+        <v>0.07497230966823791</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C349" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E349">
-        <v>0.06626173880750924</v>
+        <v>0.07406743207165406</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C350" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E350">
-        <v>0.06416280143441366</v>
+        <v>0.07358391847690685</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C351" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D351" t="s">
         <v>26</v>
       </c>
       <c r="E351">
-        <v>0.06408057267229883</v>
+        <v>0.07241494106254623</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C352" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D352" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E352">
-        <v>0.06315089688954045</v>
+        <v>0.07214929816460867</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D353" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.06285893466646622</v>
+        <v>0.07190188396967806</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C354" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E354">
-        <v>0.06261025075189337</v>
+        <v>0.06957964593926486</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C355" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D355" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E355">
-        <v>0.06261025075189337</v>
+        <v>0.06240760475697275</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C356" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D356" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E356">
-        <v>0.06261025075189337</v>
+        <v>0.06222595054596151</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C357" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D357" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E357">
-        <v>0.06261025075189337</v>
+        <v>0.06098831875191976</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.06261025075189337</v>
+        <v>0.05933350924494465</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6561,13 +6561,13 @@
         <v>11</v>
       </c>
       <c r="C359" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D359" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E359">
-        <v>0.06261025075189337</v>
+        <v>0.05879235046402811</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C360" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D360" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E360">
-        <v>0.06261025075189337</v>
+        <v>0.05701561936019917</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C361" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D361" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E361">
-        <v>0.06261025075189337</v>
+        <v>0.05617256151601029</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C362" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D362" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E362">
-        <v>0.0594217742939965</v>
+        <v>0.05544455902687081</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C363" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D363" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E363">
-        <v>0.05893430158701977</v>
+        <v>0.05491363855173006</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C364" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D364" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E364">
-        <v>0.05695015323958948</v>
+        <v>0.05041605662219063</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C365" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E365">
-        <v>0.0567968390301978</v>
+        <v>0.04982295840808933</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C366" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D366" t="s">
         <v>28</v>
       </c>
       <c r="E366">
-        <v>0.05679662690045256</v>
+        <v>0.04961171420936234</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C367" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D367" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E367">
-        <v>0.05444302947102975</v>
+        <v>0.04959295115173007</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,7 +6711,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C368" t="s">
         <v>19</v>
@@ -6720,7 +6720,7 @@
         <v>29</v>
       </c>
       <c r="E368">
-        <v>0.05444302947102975</v>
+        <v>0.0495029516883304</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C369" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D369" t="s">
         <v>29</v>
       </c>
       <c r="E369">
-        <v>0.05444302947102975</v>
+        <v>0.0495029516883304</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,7 +6745,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C370" t="s">
         <v>21</v>
@@ -6754,7 +6754,7 @@
         <v>29</v>
       </c>
       <c r="E370">
-        <v>0.05444302947102975</v>
+        <v>0.0495029516883304</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,7 +6762,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C371" t="s">
         <v>24</v>
@@ -6771,7 +6771,7 @@
         <v>29</v>
       </c>
       <c r="E371">
-        <v>0.05444302947102975</v>
+        <v>0.0495029516883304</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,7 +6779,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C372" t="s">
         <v>25</v>
@@ -6788,7 +6788,7 @@
         <v>29</v>
       </c>
       <c r="E372">
-        <v>0.05444302947102975</v>
+        <v>0.0495029516883304</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C373" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D373" t="s">
         <v>29</v>
       </c>
       <c r="E373">
-        <v>0.05444302947102975</v>
+        <v>0.0495029516883304</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,7 +6813,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C374" t="s">
         <v>20</v>
@@ -6822,7 +6822,7 @@
         <v>29</v>
       </c>
       <c r="E374">
-        <v>0.05444302947102975</v>
+        <v>0.0495029516883304</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C375" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D375" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E375">
-        <v>0.05421545935778995</v>
+        <v>0.0495029516883304</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C376" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D376" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E376">
-        <v>0.05357166025383495</v>
+        <v>0.04942878137654169</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C377" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D377" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E377">
-        <v>0.04881883879853813</v>
+        <v>0.04596035031393321</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C378" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378">
-        <v>0.04664821946080793</v>
+        <v>0.04293975806107732</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D379" t="s">
         <v>26</v>
       </c>
       <c r="E379">
-        <v>0.04641589440046279</v>
+        <v>0.04028973260249528</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C380" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
       </c>
       <c r="E380">
-        <v>0.04108562516879074</v>
+        <v>0.03812843112973079</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C381" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D381" t="s">
         <v>26</v>
       </c>
       <c r="E381">
-        <v>0.03711103217559333</v>
+        <v>0.03289696406852929</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C382" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D382" t="s">
         <v>26</v>
       </c>
       <c r="E382">
-        <v>0.02523006783344164</v>
+        <v>0.01624637706442795</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C383" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D383" t="s">
         <v>26</v>
       </c>
       <c r="E383">
-        <v>0.02353596378672104</v>
+        <v>0.01276504262495841</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,7 +6983,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C384" t="s">
         <v>25</v>
@@ -7000,7 +7000,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C385" t="s">
         <v>25</v>
@@ -7034,7 +7034,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C387" t="s">
         <v>21</v>
@@ -7051,10 +7051,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C388" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C389" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,7 +7085,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C390" t="s">
         <v>21</v>
@@ -7102,7 +7102,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C391" t="s">
         <v>21</v>
@@ -7119,7 +7119,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C392" t="s">
         <v>21</v>
@@ -7136,7 +7136,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C393" t="s">
         <v>21</v>
@@ -7153,7 +7153,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C394" t="s">
         <v>25</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C395" t="s">
         <v>25</v>
@@ -7187,7 +7187,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C396" t="s">
         <v>25</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C397" t="s">
         <v>25</v>
@@ -7224,7 +7224,7 @@
         <v>16</v>
       </c>
       <c r="C398" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C400" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C402" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,7 +7306,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C403" t="s">
         <v>21</v>
@@ -7323,7 +7323,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C404" t="s">
         <v>21</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C405" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,7 +7357,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C406" t="s">
         <v>25</v>
@@ -7374,7 +7374,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C407" t="s">
         <v>25</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C409" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7428,7 +7428,7 @@
         <v>7</v>
       </c>
       <c r="C410" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,10 +7442,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C411" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D411" t="s">
         <v>27</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C412" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C413" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,7 +7493,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C414" t="s">
         <v>21</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C415" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,7 +7527,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C416" t="s">
         <v>21</v>
